--- a/templates/QARSF/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/QARSF/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B09C54-C725-4273-A254-28B514AE2360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{22B09C54-C725-4273-A254-28B514AE2360}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
-    <sheet name="AddLine" sheetId="2" r:id="rId2"/>
-    <sheet name="FirmAllLines" sheetId="3" r:id="rId3"/>
-    <sheet name="Allocate" sheetId="5" r:id="rId4"/>
-    <sheet name="PickPackShip" sheetId="13" r:id="rId5"/>
-    <sheet name="CreateInvoice" sheetId="18" r:id="rId6"/>
-    <sheet name="RMA Header" sheetId="19" r:id="rId7"/>
-    <sheet name="RMA Details Maintenance Grid" sheetId="20" r:id="rId8"/>
-    <sheet name="Receipt" sheetId="21" r:id="rId9"/>
+    <sheet name="AddHeader" r:id="rId1" sheetId="1"/>
+    <sheet name="AddLine" r:id="rId2" sheetId="2"/>
+    <sheet name="FirmAllLines" r:id="rId3" sheetId="3"/>
+    <sheet name="Allocate" r:id="rId4" sheetId="5"/>
+    <sheet name="PickPackShip" r:id="rId5" sheetId="13"/>
+    <sheet name="CreateInvoice" r:id="rId6" sheetId="18"/>
+    <sheet name="RMA Header" r:id="rId7" sheetId="19"/>
+    <sheet name="RMA Details Maintenance Grid" r:id="rId8" sheetId="20"/>
+    <sheet name="Receipt" r:id="rId9" sheetId="21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>API Mode</t>
   </si>
@@ -246,13 +246,43 @@
   </si>
   <si>
     <t>RMA-5MZ0-1-3</t>
+  </si>
+  <si>
+    <t>RMA-K37M-001</t>
+  </si>
+  <si>
+    <t>a6h1K000000Q2FEQA0</t>
+  </si>
+  <si>
+    <t>RMA-K37M-1-1</t>
+  </si>
+  <si>
+    <t>RMA-JHEK-001</t>
+  </si>
+  <si>
+    <t>a6h1K000000Q2JBQA0</t>
+  </si>
+  <si>
+    <t>RMA-JHEK-1-1</t>
+  </si>
+  <si>
+    <t>RMA-JBWV-001</t>
+  </si>
+  <si>
+    <t>a6h1K000000Q2JVQA0</t>
+  </si>
+  <si>
+    <t>RMA-JBWV-1-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +302,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +456,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -290,20 +464,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -320,10 +554,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -358,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -393,7 +627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -487,21 +721,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +752,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -570,14 +804,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -586,12 +820,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -641,13 +875,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -656,19 +890,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -848,13 +1082,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -863,8 +1097,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,13 +1119,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -900,9 +1134,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,13 +1162,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -943,9 +1177,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,12 +1205,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,9 +1219,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1013,13 +1247,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1028,12 +1262,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="47.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1077,13 +1311,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1092,16 +1326,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.48046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.05859375" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1179,10 +1414,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1191,7 +1426,7 @@
         <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1224,13 +1459,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1239,14 +1474,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1321,7 +1556,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>